--- a/Crawler/CtgrWiki_Tier1_1_1.xlsx
+++ b/Crawler/CtgrWiki_Tier1_1_1.xlsx
@@ -896,10 +896,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1221,413 +1218,343 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A99"/>
+  <dimension ref="A1:A97"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView topLeftCell="A67" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.000000" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="0" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="1" customFormat="1">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1" s="1" customFormat="1">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1" s="1" customFormat="1">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1" s="1" customFormat="1">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" s="1" customFormat="1">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1" s="1" customFormat="1">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1" s="1" customFormat="1">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1" s="1" customFormat="1">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1" s="1" customFormat="1">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1" s="1" customFormat="1">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1" s="1" customFormat="1">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="1" customFormat="1">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="1" customFormat="1">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" s="1" customFormat="1">
-      <c r="A20" s="1" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="1" customFormat="1">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="1" customFormat="1">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" s="1" customFormat="1">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" s="1" customFormat="1">
-      <c r="A24" s="1" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="0" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="1" customFormat="1">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="1" customFormat="1">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="1" customFormat="1">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="0" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="1" customFormat="1">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="1" customFormat="1">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="1" customFormat="1">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="1" customFormat="1">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="1" customFormat="1">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="1" customFormat="1">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" s="1" customFormat="1">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" s="1" customFormat="1">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" s="1" customFormat="1">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" s="1" customFormat="1">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" s="1" customFormat="1">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" s="1" customFormat="1">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" s="1" customFormat="1">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" s="1" customFormat="1">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" s="1" customFormat="1">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" s="1" customFormat="1">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" s="1" customFormat="1">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" s="1" customFormat="1">
-      <c r="A49" s="1" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="0" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" s="1" customFormat="1">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" s="1" customFormat="1">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" s="1" customFormat="1">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" s="1" customFormat="1">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" s="1" customFormat="1">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" s="1" customFormat="1">
-      <c r="A55" s="1" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" s="1" customFormat="1">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="0" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" s="1" customFormat="1">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" s="1" customFormat="1">
-      <c r="A58" s="1" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" s="1" customFormat="1">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" s="1" customFormat="1">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" s="1" customFormat="1">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" s="1" customFormat="1">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" s="1" customFormat="1">
-      <c r="A63" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" s="1" customFormat="1">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" s="1" customFormat="1">
-      <c r="A65" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" s="1" customFormat="1">
-      <c r="A66" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" s="1" customFormat="1">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" s="0" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" s="1" customFormat="1">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" s="1" customFormat="1">
-      <c r="A69" s="1" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="0" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" s="1" customFormat="1">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" s="1" customFormat="1">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" s="1" customFormat="1">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" s="1" customFormat="1">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" s="1" customFormat="1">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" s="1" customFormat="1">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" s="0" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" s="1" customFormat="1">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" s="1" customFormat="1">
-      <c r="A77" s="1" t="s">
+    <row r="76" spans="1:1">
+      <c r="A76" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="0" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" s="1" customFormat="1">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:1" s="1" customFormat="1">
-      <c r="A79" s="1" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="0" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" s="1" customFormat="1">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="0" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="1" customFormat="1">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" s="0" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" s="1" customFormat="1">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" s="1" customFormat="1">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" s="1" customFormat="1">
-      <c r="A84" s="1" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" s="1" customFormat="1">
-      <c r="A85" s="1" t="s">
+    <row r="85" spans="1:1">
+      <c r="A85" s="0" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" s="1" customFormat="1">
-      <c r="A86" s="1" t="s">
+    <row r="86" spans="1:1">
+      <c r="A86" s="0" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" s="1" customFormat="1">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" s="1" customFormat="1">
-      <c r="A88" s="1" t="s">
+    <row r="87" spans="1:1">
+      <c r="A87" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="0" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" s="1" customFormat="1">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="1:1">
+      <c r="A89" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" s="1" customFormat="1">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" s="1" customFormat="1">
-      <c r="A91" s="1" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" s="1" customFormat="1">
-      <c r="A92" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" s="1" customFormat="1">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" s="1" customFormat="1">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" s="1" customFormat="1">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:1" s="1" customFormat="1">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" s="1" customFormat="1">
-      <c r="A97" s="1" t="s">
+    <row r="95" spans="1:1">
+      <c r="A95" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="0" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" s="1" customFormat="1">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1" s="1" customFormat="1">
-      <c r="A99" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
